--- a/PM/ChangeRequests/ChangeRequest.xlsx
+++ b/PM/ChangeRequests/ChangeRequest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Mazrouaa\Documents\GitHub\learning-hub\PM\ChangeRequests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09DC384-D801-4F45-9039-4A9788AB875C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1473CDF8-767D-41D3-B45C-A897D927B036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,10 +95,17 @@
 3- delay in the project schedule and increase of the cost due to that so much additional work will be needed to update all documents and work products.</t>
   </si>
   <si>
-    <t xml:space="preserve">1- impact analysis of this change request willl be done to get the amount of money and time needed.
-2-The RTM will be used in the impact analysis of this risk.
-3- Team members will stop working on the current tasks until impact analysis is done.
-4- Customer will be informed of the additional time and cost will be needed due to this change request.
+    <t xml:space="preserve">
+1-The RTM will be used to define the impact of this risk on work products.
+SRS: Feature 3.1.5 will be deleted
+CRS: features 5.1-5.2 will bed eleted
+Class diagram: editcontent()-editallcontent() functions will be deleted.
+Admin sequence diagram: 4.0-4.8 will be removed
+User sequence diagram:  5.0-5.8 will be removed
+Use case diagram: Edit-Edit all will be removed
+RTM: edit features(32-38) will be deleted
+2- Team members will stop working on the current tasks until impact analysis is done.
+3- Customer will be informed of the additional time and cost will be needed due to this change request.
 </t>
   </si>
 </sst>
@@ -171,6 +178,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -180,7 +188,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -470,7 +477,7 @@
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,692 +493,861 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="5"/>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="298.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" ht="249.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="409.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="219">
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
@@ -1196,188 +1372,19 @@
     <mergeCell ref="E90:F90"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
